--- a/biology/Médecine/1916_en_santé_et_médecine/1916_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1916_en_santé_et_médecine/1916_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1916_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1916_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1916 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1916_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1916_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>24 février : au Godat, près de La Neuville-au-Pont, première attaque au chlore de l'armée française[1].
-26 février : décret portant création, pour la durée de la guerre, d'un corps de chirurgiens-dentistes de l'armée de terre[2].
-1er mars : décret instituant l'emploi de « chirurgien-dentiste de la Marine », assimilé à celui de médecin auxiliaire[2].
-12 avril (8 joumada al-thani 1334) : au Maroc, dahir réglementant l'exercice de l'ensemble des professions médicales[3].
-1er juin : les médecins américains Delafield Du Bois et Eugene Du Bois publient une formule, encore employée en 2015, pour calculer la surface corporelle à partir de la taille et du poids[4].
-12 juillet : loi française portant interdiction du commerce et de l'usage des stupéfiants[5],[6].
-9-13 novembre : le congrès dentaire interallié se tient à Paris, principalement consacré aux fractures des maxillaires[2].
-14-18 novembre : visites, organisées pour les congressistes, des services s'occupant de prothèses et de restaurations maxillo-faciales[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>24 février : au Godat, près de La Neuville-au-Pont, première attaque au chlore de l'armée française.
+26 février : décret portant création, pour la durée de la guerre, d'un corps de chirurgiens-dentistes de l'armée de terre.
+1er mars : décret instituant l'emploi de « chirurgien-dentiste de la Marine », assimilé à celui de médecin auxiliaire.
+12 avril (8 joumada al-thani 1334) : au Maroc, dahir réglementant l'exercice de l'ensemble des professions médicales.
+1er juin : les médecins américains Delafield Du Bois et Eugene Du Bois publient une formule, encore employée en 2015, pour calculer la surface corporelle à partir de la taille et du poids.
+12 juillet : loi française portant interdiction du commerce et de l'usage des stupéfiants,.
+9-13 novembre : le congrès dentaire interallié se tient à Paris, principalement consacré aux fractures des maxillaires.
+14-18 novembre : visites, organisées pour les congressistes, des services s'occupant de prothèses et de restaurations maxillo-faciales.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1916_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1916_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Février : Parution du premier numéro du Journal of Immunology[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Février : Parution du premier numéro du Journal of Immunology.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1916_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1916_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,15 +594,17 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>10 janvier : Sune Bergström (mort en 2004), biochimiste suédois, lauréat du prix Nobel de médecine en 1982.
 13 janvier : Marie-Andrée Lagroua Weill-Hallé (morte en 1994), gynécologue française, promotrice de l'accès à la contraception et du contrôle des naissances.
-23 mars : Nguyen Tuong Bach (mort en 2013), médecin, écrivain et homme politique vietnamien[8].
-16 mai : Robert-César Moreau (mort en 2000), pharmacologue français, professeur de pharmacie chimique[9].
+23 mars : Nguyen Tuong Bach (mort en 2013), médecin, écrivain et homme politique vietnamien.
+16 mai : Robert-César Moreau (mort en 2000), pharmacologue français, professeur de pharmacie chimique.
 4 juin : Robert Furchgott (mort en 2009), biochimiste et pharmacologue américain, lauréat du prix Nobel de médecine en 1998.
 8 juin : Francis Crick (mort en 2004), biologiste britannique, lauréat, avec Maurice Wilkins, du prix Nobel de médecine en 1962 pour la découverte de la structure en double hélice de l'ADN.
-10 octobre : Charles Coury (mort en 1973), médecin français, spécialiste de l'exploration du médiastin et de l'hippocratisme digital, historien de la médecine[10].
+10 octobre : Charles Coury (mort en 1973), médecin français, spécialiste de l'exploration du médiastin et de l'hippocratisme digital, historien de la médecine.
 19 octobre : Jean Dausset (mort en 2009), immunologiste français, lauréat du prix Nobel de médecine en 1980.
 15 décembre : Maurice Wilkins (mort en 2004), physicien britannique d'origine néo-zélandaise, lauréat, avec Francis Crick, du prix Nobel de médecine en 1962 pour la découverte de la structure en double hélice de l'ADN.
 20 décembre : Gabriel Richet (mort en 2014), néphrologue français.</t>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1916_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1916_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,24 +635,26 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1er janvier : Isaac Ott (né en 1847), médecin américain[11].
-6 janvier : Rodolphe Engel  (né en 1850), médecin et chimiste français[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er janvier : Isaac Ott (né en 1847), médecin américain.
+6 janvier : Rodolphe Engel  (né en 1850), médecin et chimiste français.
 11 janvier : Guido Baccelli (né en 1830), médecin et homme politique italien.
 20 janvier : Édouard Heckel  (né en 1843), médecin et botaniste français.
 12 février : Pietro Grocco (né en 1856), médecin italien.
 19 février : Ernst Mach (né en 1838), physicien et philosophe autrichien dont certaines idées se fondent sur la physiologie et la psychologie des perceptions sensorielles.
-26 mars : Théodore Guilloz (né en 1868), pharmacien et médecin français, pionnier de la radiologie[13].
+26 mars : Théodore Guilloz (né en 1868), pharmacien et médecin français, pionnier de la radiologie.
 24 avril : Émile Jungfleisch (né en 1839), chimiste et pharmacologue français.
 6 juin : James Kent (né en 1849), homéopathe américain.
 15 juillet : Élie Metchnikoff (né en 1845), zoologiste et bactériologiste russe, naturalisé français.
-16 juillet : Alexandre Elzéar Layet (né en 1840), médecin principal de la Marine française[14].
+16 juillet : Alexandre Elzéar Layet (né en 1840), médecin principal de la Marine française.
 27 septembre : Valentin Magnan (né en 1835), psychiatre français.
 10 novembre : Alfred Naquet (né en 1834), médecin, chimiste et homme politique français.
-21 novembre : Eugène Doyen (né en 1859), chirurgien français[15].
+21 novembre : Eugène Doyen (né en 1859), chirurgien français.
 Date à préciser
-Isidore Louveau (né en 1852), médecin français, impliqué dans l'affaire des fiches[16],[17].</t>
+Isidore Louveau (né en 1852), médecin français, impliqué dans l'affaire des fiches,.</t>
         </is>
       </c>
     </row>
